--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D656E83D-75DD-4A49-B883-253CEE9ED0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B650E-43BE-4034-BA88-52B5C54E307C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="1440" windowWidth="16425" windowHeight="11700" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,18 @@
     <sheet name="HRTANNUALDETAIL" sheetId="6" r:id="rId6"/>
     <sheet name="HRTTIMEITEM" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -201,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="203">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -269,9 +280,6 @@
     <t>Nullable</t>
   </si>
   <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -416,9 +424,6 @@
     <t>Y/N (default Y)</t>
   </si>
   <si>
-    <t>OLD_DEPT_LEADER</t>
-  </si>
-  <si>
     <t>샘플 제공 코드</t>
   </si>
   <si>
@@ -563,12 +568,6 @@
     <t>0 : 근무 / 1: 휴무 / 2 : 휴일</t>
   </si>
   <si>
-    <t>SORT_SEQ</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>HRTDUTYINFO</t>
   </si>
   <si>
@@ -693,9 +692,6 @@
   </si>
   <si>
     <t>TIME_ITEM_NAME</t>
-  </si>
-  <si>
-    <t>TIME_ITEM_ABBR_NAME</t>
   </si>
   <si>
     <t>설명</t>
@@ -1019,21 +1015,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>정렬순서</t>
-    </r>
-  </si>
-  <si>
+      <t>웹</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>웹</t>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1041,6 +1034,31 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용여부</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샘플</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1049,66 +1067,30 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사용여부</t>
-    </r>
-  </si>
-  <si>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>샘플</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1116,20 +1098,6 @@
       <t>코드</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>근태명준말</t>
-    </r>
   </si>
   <si>
     <t>POSITION_CODE</t>
@@ -1140,20 +1108,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회사코드</t>
-    </r>
-  </si>
-  <si>
     <t>부서코드</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1164,43 +1118,6 @@
   <si>
     <t>SHIFT_CODE</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이전</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>부서장</t>
-    </r>
   </si>
   <si>
     <t>ANNUAL_START_DATE</t>
@@ -7736,7 +7653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7876,13 +7793,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -7932,7 +7842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -8371,17 +8281,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8464,28 +8363,10 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -8497,6 +8378,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8517,16 +8401,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -8747,10 +8644,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K35"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:K35"/>
+      <selection activeCell="C9" sqref="C9:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8761,32 +8658,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -8800,13 +8697,13 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -8814,77 +8711,77 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="70" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
@@ -8897,551 +8794,1163 @@
       <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="39" t="s">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="I9" s="14">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="14">
+        <v>100</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="19">
+        <v>30</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="14">
+        <v>200</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="40">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="14">
+        <v>8</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="37">
+        <v>10</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="14">
+        <v>8</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="37">
+        <v>10</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="19">
+        <v>8</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="14">
+        <v>4</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="37">
+        <v>10</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="23">
+        <v>8</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="24">
+        <v>4</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75">
+      <c r="A23" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A24" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A24:K34"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickTop="1">
+      <c r="F4" s="73"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="14">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="14">
-        <v>20</v>
-      </c>
-      <c r="J10" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="I10" s="19">
+        <v>50</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="19">
-        <v>30</v>
-      </c>
-      <c r="J11" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="I11" s="14">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
       <c r="H12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="14">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C13" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="14">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="14">
         <v>8</v>
       </c>
       <c r="J14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="37">
-        <v>10</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="38"/>
+      <c r="I15" s="14">
+        <v>8</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="14">
-        <v>8</v>
-      </c>
-      <c r="J16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>168</v>
+        <v>202</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="36"/>
       <c r="G17" s="33"/>
       <c r="H17" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="37">
         <v>10</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="19">
-        <v>8</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="14">
-        <v>4</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="37">
-        <v>10</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="23">
-        <v>8</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="24">
-        <v>4</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="I23">
-        <v>100</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="12.75">
-      <c r="A24" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A25" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+    <row r="19" spans="1:13" ht="12.75">
+      <c r="A19" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A20" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A25:K35"/>
+  <mergeCells count="14">
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A20:M33"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:G7"/>
@@ -9456,691 +9965,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A2:M35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:M35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="77" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="40">
-        <v>3</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="14">
-        <v>10</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="19">
-        <v>50</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="14">
-        <v>10</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="14">
-        <v>10</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="14">
-        <v>10</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="14">
-        <v>8</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="14">
-        <v>8</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="40">
-        <v>10</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A19" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="37">
-        <v>10</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A22" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A22:M35"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="D8:F8"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -10151,10 +9975,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Z58"/>
+  <dimension ref="A2:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:Z58"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10165,32 +9989,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10204,13 +10028,13 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="16.5">
@@ -10218,77 +10042,77 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="70" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
@@ -10301,41 +10125,41 @@
       <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="39" t="s">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5">
+      <c r="A9" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="40">
-        <v>3</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" thickTop="1">
+      <c r="I9" s="14">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="18" t="s">
         <v>73</v>
       </c>
@@ -10343,91 +10167,99 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="14">
+        <v>23</v>
+      </c>
+      <c r="I10" s="19">
+        <v>50</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25">
+      <c r="A11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="37">
         <v>10</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5">
-      <c r="A11" s="16" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5">
+      <c r="A12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18" t="s">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="19">
-        <v>50</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.25">
-      <c r="A12" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="37">
-        <v>10</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38" t="s">
-        <v>172</v>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="14">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="D13" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="D14" s="18" t="s">
         <v>80</v>
       </c>
@@ -10435,20 +10267,24 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5">
+      <c r="K14" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1">
       <c r="A15" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="D15" s="18" t="s">
         <v>82</v>
       </c>
@@ -10456,1090 +10292,1087 @@
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
       <c r="H15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="14">
+        <v>4</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="40">
         <v>2</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A16" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18" t="s">
+      <c r="J16" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="B17" s="43"/>
+      <c r="C17" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="40">
         <v>4</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="45" t="s">
+      <c r="J17" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="40">
+      <c r="B18" s="43"/>
+      <c r="C18" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="40">
         <v>2</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="40">
+      <c r="I19" s="40">
         <v>4</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="40">
+      <c r="I20" s="40">
         <v>2</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J20" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="40">
+      <c r="I21" s="40">
         <v>4</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="40">
+      <c r="I22" s="40">
         <v>2</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J22" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="40">
+      <c r="I23" s="40">
         <v>4</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J23" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="40">
+      <c r="I24" s="14">
         <v>2</v>
       </c>
-      <c r="J23" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="40">
-        <v>4</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" thickTop="1">
+      <c r="J24" s="9"/>
+      <c r="K24" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5">
       <c r="A25" s="22" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="58" t="s">
+      <c r="C25" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="2"/>
       <c r="H25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" ht="16.5">
       <c r="A26" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="2"/>
       <c r="H26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="16.5">
       <c r="A27" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="2"/>
       <c r="H27" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="16.5">
       <c r="A28" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="58" t="s">
+      <c r="C28" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="2"/>
       <c r="H28" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="14">
-        <v>4</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="16.5">
       <c r="A29" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="58" t="s">
+      <c r="C29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="2"/>
       <c r="H29" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>78</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="16.5">
       <c r="A30" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="58" t="s">
+      <c r="C30" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="2"/>
       <c r="H30" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="16.5">
       <c r="A31" s="22" t="s">
         <v>105</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="58" t="s">
+      <c r="C31" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="2"/>
       <c r="H31" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>78</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="16.5">
       <c r="A32" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="58" t="s">
+      <c r="C32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="14">
-        <v>4</v>
+      <c r="H32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="24">
+        <v>300</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5">
+    <row r="33" spans="1:26" ht="17.25" thickBot="1">
       <c r="A33" s="22" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="55"/>
+      <c r="C33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="2"/>
       <c r="H33" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="24">
-        <v>300</v>
-      </c>
-      <c r="J33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A34" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="24">
+      <c r="I34" s="40">
         <v>1</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="21" t="s">
+      <c r="J34" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="39" t="s">
+    <row r="35" spans="1:26" ht="17.25" thickTop="1">
+      <c r="A35" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="40">
-        <v>1</v>
-      </c>
-      <c r="J35" s="40" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="17.25" thickTop="1">
+      <c r="I35" s="24">
+        <v>10</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="58" t="s">
+      <c r="C36" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="55"/>
+      <c r="D36" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="9" t="s">
-        <v>24</v>
+      <c r="H36" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I36" s="24">
         <v>10</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A37" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="24">
-        <v>10</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="39"/>
-    </row>
-    <row r="39" spans="1:26" ht="17.25" thickTop="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="31"/>
-    </row>
-    <row r="41" spans="1:26" ht="12.75">
-      <c r="A41" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A42" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="80"/>
-      <c r="W42" s="80"/>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="80"/>
+    </row>
+    <row r="37" spans="1:26" ht="16.5">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="31"/>
+    </row>
+    <row r="39" spans="1:26" ht="12.75">
+      <c r="A39" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A40" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="76"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="80"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="80"/>
-      <c r="W43" s="80"/>
-      <c r="X43" s="80"/>
-      <c r="Y43" s="80"/>
-      <c r="Z43" s="80"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="76"/>
+      <c r="W43" s="76"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="76"/>
+      <c r="Z43" s="76"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="80"/>
-      <c r="V44" s="80"/>
-      <c r="W44" s="80"/>
-      <c r="X44" s="80"/>
-      <c r="Y44" s="80"/>
-      <c r="Z44" s="80"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="80"/>
-      <c r="Z45" s="80"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="80"/>
-      <c r="Z46" s="80"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="80"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="80"/>
-      <c r="Z47" s="80"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
+      <c r="X47" s="76"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="80"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="80"/>
-      <c r="X48" s="80"/>
-      <c r="Y48" s="80"/>
-      <c r="Z48" s="80"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="76"/>
+      <c r="W48" s="76"/>
+      <c r="X48" s="76"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="76"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="76"/>
+      <c r="X49" s="76"/>
+      <c r="Y49" s="76"/>
+      <c r="Z49" s="76"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="76"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="76"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="80"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="76"/>
+      <c r="V51" s="76"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="76"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="76"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
+      <c r="V53" s="76"/>
+      <c r="W53" s="76"/>
+      <c r="X53" s="76"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="76"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="80"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="80"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="76"/>
+      <c r="W54" s="76"/>
+      <c r="X54" s="76"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="76"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="80"/>
-      <c r="Q55" s="80"/>
-      <c r="R55" s="80"/>
-      <c r="S55" s="80"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="76"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="76"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="80"/>
-      <c r="S56" s="80"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="80"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
-      <c r="S57" s="80"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="80"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A42:Z58"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
+  <mergeCells count="36">
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A40:Z56"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11553,10 +11386,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:K29"/>
+      <selection activeCell="C9" sqref="C9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11568,32 +11401,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -11607,13 +11440,13 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -11621,77 +11454,77 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
+      <c r="B6" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="70" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
@@ -11704,285 +11537,260 @@
       <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="39" t="s">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="40">
+      <c r="I9" s="14">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickTop="1">
+      <c r="J9" s="12"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="16" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="14">
-        <v>3</v>
-      </c>
-      <c r="J10" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="I10" s="19">
+        <v>10</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="19">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
+      <c r="K11" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A17" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A18:K29"/>
+    <mergeCell ref="A17:K28"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11995,10 +11803,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12010,32 +11818,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12049,13 +11857,13 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -12063,77 +11871,77 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
+      <c r="B6" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="70" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
@@ -12146,324 +11954,299 @@
       <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="39" t="s">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="40">
-        <v>3</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickTop="1">
+      <c r="I9" s="19">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="16" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
-        <v>24</v>
+      <c r="H10" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="I10" s="19">
-        <v>10</v>
-      </c>
-      <c r="J10" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="19">
-        <v>30</v>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
+      <c r="K11" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A14" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A15:K29"/>
+    <mergeCell ref="A14:K28"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12476,10 +12259,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:K30"/>
+      <selection activeCell="C9" sqref="C9:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12491,32 +12274,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12530,13 +12313,13 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="16.5">
@@ -12544,77 +12327,77 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
+      <c r="B6" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="70" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
@@ -12627,433 +12410,408 @@
       <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="40" t="s">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5">
+      <c r="A9" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="37">
+        <v>10</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="40">
-        <v>3</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A10" s="32" t="s">
-        <v>177</v>
-      </c>
       <c r="B10" s="37" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>196</v>
+        <v>180</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>176</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="33"/>
       <c r="H10" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="37">
         <v>10</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1">
+      <c r="J10" s="37"/>
+      <c r="K10" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>178</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="32" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="36"/>
       <c r="G11" s="33"/>
       <c r="H11" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="37">
         <v>10</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38" t="s">
-        <v>190</v>
-      </c>
+      <c r="J11" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="16.5">
-      <c r="A12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="37">
-        <v>10</v>
-      </c>
-      <c r="J12" s="37" t="s">
+      <c r="A12" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="I12" s="14">
+        <v>8</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="14">
         <v>8</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="14">
-        <v>8</v>
-      </c>
-      <c r="J14" s="24"/>
+      <c r="H14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="K14" s="26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
       <c r="H15" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>147</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5">
-      <c r="A19" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="12.75">
-      <c r="A21" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A22" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75">
+      <c r="A20" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A21" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A22:K30"/>
+    <mergeCell ref="A21:K29"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13066,10 +12824,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K36"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="C9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13081,32 +12839,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13120,13 +12878,13 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="16.5">
@@ -13134,77 +12892,77 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
+      <c r="B6" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="70" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
@@ -13217,42 +12975,40 @@
       <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="39" t="s">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5">
+      <c r="A9" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="40">
-        <v>3</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" thickTop="1">
+      <c r="I9" s="19">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>73</v>
@@ -13260,396 +13016,348 @@
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
-        <v>24</v>
+      <c r="H10" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="I10" s="19">
-        <v>10</v>
-      </c>
-      <c r="J10" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="19">
-        <v>50</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="A12" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="40">
-        <v>50</v>
-      </c>
-      <c r="J12" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="14">
+        <v>300</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5">
+      <c r="A12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="14">
-        <v>300</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5">
-      <c r="A14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="I12" s="14">
         <v>1</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.5">
-      <c r="A16" s="41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A17" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5">
+      <c r="A14" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A15" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A17:K36"/>
+    <mergeCell ref="A15:K34"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDDC50-FFA9-48DC-A0A0-A25A9FC03F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F196A60-2458-4CA7-854D-4AAC26CB527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7755" yWindow="5265" windowWidth="18195" windowHeight="11385" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="HRTGRADEINFO " sheetId="5" r:id="rId5"/>
     <sheet name="HRTANNUALDETAIL" sheetId="6" r:id="rId6"/>
     <sheet name="HRTTIMEITEM" sheetId="7" r:id="rId7"/>
-    <sheet name="HRTATTAPP" sheetId="8" r:id="rId8"/>
+    <sheet name="HRTSHIFTAPL" sheetId="8" r:id="rId8"/>
     <sheet name="HRTAPRHIST" sheetId="9" r:id="rId9"/>
     <sheet name="HRTATTRECORD" sheetId="10" r:id="rId10"/>
     <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId11"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="278">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -7335,10 +7335,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>APPLY_DATE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -7916,18 +7912,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>근태패턴-일자 매핑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자 사원 코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 패턴 코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>WORK_DATE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -7972,10 +7956,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>연장/휴일/조퇴/외출/반차/기차</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>대기/승인/반려</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8004,14 +7984,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>신청번호</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재자 사원코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>결재일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8048,18 +8020,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DAY_NUM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_ITEM_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>HRTATTAPL</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8076,10 +8036,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>근태항목코드        FK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -8619,6 +8575,214 @@
   </si>
   <si>
     <t>퇴근시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>연장/휴일/조퇴/외출/반차/기타</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK, HRTGRADEINFO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK, HRTDUTYINFO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK, ORGDEPTMASTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK, HRTSHIFTMASTER 참조</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태항목코드   FK, HRTTIMEITEM 참조</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK, HRIMASTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK, HRIMASTER 참조</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_PATTERN_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 패턴 코드 FK, HRTSHIFTPATTERNDTL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청대상자 사원 코드 FK, HRIMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLICANT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 사원 코드 FK, HRIMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서코드, FK, ORGDEPTMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청번호 FK, HRISHIFTAPL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일별 근무패턴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무패턴코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_PATTERN_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MON_SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MON_SHIFT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUE_SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUE_SHIFT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WED_SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WED_SHIFT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>THU_SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>THU_SHIFT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRI_SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRI_SHIFT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAT_SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAT_SHIFT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUN_SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUN_SHIFT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무패턴명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일 근무조 FK, HRTSHIFTMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일 근무조명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재자 사원코드 FK, HRIMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_HEADER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서장 여부</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N (default N)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -8626,7 +8790,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8728,6 +8892,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -9184,7 +9355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9255,6 +9426,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9525,10 +9699,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9540,30 +9714,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9578,11 +9752,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -9595,69 +9769,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -9667,7 +9841,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="69"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -9823,7 +9997,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="13" t="s">
@@ -9879,7 +10053,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -9957,7 +10131,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="13" t="s">
@@ -9979,11 +10153,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -9997,7 +10171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
@@ -10005,54 +10179,81 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H22" s="24">
         <v>4</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75">
-      <c r="A24" s="25" t="s">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="24">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75">
+      <c r="A25" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A25" s="59" t="s">
+    <row r="26" spans="1:10" ht="155.25" customHeight="1">
+      <c r="A26" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A26:J26"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F5"/>
@@ -10074,7 +10275,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10089,30 +10290,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10127,11 +10328,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10139,74 +10340,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="D5" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="B6" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10216,20 +10417,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="39"/>
@@ -10254,7 +10455,7 @@
         <v>189</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="14" t="s">
@@ -10268,14 +10469,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
@@ -10287,19 +10488,19 @@
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -10313,19 +10514,19 @@
         <v>22</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -10339,7 +10540,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75">
@@ -10348,18 +10549,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A16" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
+      <c r="A16" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10387,10 +10588,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10405,30 +10606,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10443,11 +10644,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10455,74 +10656,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="D5" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="B6" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10532,24 +10733,22 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="32" t="s">
-        <v>190</v>
+      <c r="A9" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>190</v>
+      <c r="C9" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>243</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E9" s="41"/>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
         <v>23</v>
@@ -10562,16 +10761,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>22</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -10579,55 +10776,359 @@
         <v>23</v>
       </c>
       <c r="H10" s="19">
-        <v>2</v>
-      </c>
-      <c r="I10" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="A11" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="16" t="s">
-        <v>238</v>
+    <row r="11" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="19">
         <v>10</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="25" t="s">
+    <row r="12" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="19">
+        <v>50</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="19">
+        <v>10</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="19">
+        <v>50</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="19">
+        <v>10</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="19">
+        <v>50</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="19">
+        <v>10</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="19">
+        <v>50</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19">
+        <v>10</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="19">
+        <v>50</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="19">
+        <v>10</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="19">
+        <v>50</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="19">
+        <v>10</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="19">
+        <v>50</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75">
+      <c r="A26" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A14" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+    <row r="27" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A27" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A27:J27"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
@@ -10655,7 +11156,7 @@
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10667,30 +11168,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -10705,11 +11206,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -10722,69 +11223,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10794,7 +11295,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -10869,7 +11370,7 @@
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10881,7 +11382,9 @@
       <c r="D12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="41" t="s">
+        <v>244</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
         <v>23</v>
@@ -11010,7 +11513,7 @@
         <v>173</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -11030,20 +11533,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11075,7 +11578,7 @@
   <dimension ref="A2:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11086,30 +11589,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11124,11 +11627,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11136,74 +11639,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="D5" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="B6" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11213,7 +11716,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11263,11 +11766,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="D11" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -11373,11 +11876,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -11397,11 +11900,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -11419,11 +11922,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -11443,11 +11946,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -11465,11 +11968,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -11489,11 +11992,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -11511,11 +12014,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -11535,11 +12038,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -11557,11 +12060,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -11579,11 +12082,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -11599,11 +12102,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -11621,11 +12124,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -11641,11 +12144,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -11665,11 +12168,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -11687,11 +12190,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -11711,11 +12214,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -11733,11 +12236,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -11755,11 +12258,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -11777,11 +12280,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -11801,11 +12304,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -11837,33 +12340,33 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -11915,7 +12418,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11928,30 +12431,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -11966,11 +12469,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -11983,69 +12486,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12055,7 +12558,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -12133,18 +12636,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12175,7 +12678,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12188,30 +12691,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12226,11 +12729,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12243,69 +12746,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12315,7 +12818,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -12393,18 +12896,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12435,7 +12938,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12448,30 +12951,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12486,11 +12989,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12503,69 +13006,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12575,7 +13078,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="32" t="s">
@@ -12591,7 +13094,7 @@
         <v>144</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="s">
@@ -12615,7 +13118,7 @@
         <v>172</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="s">
@@ -12639,7 +13142,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="13" t="s">
@@ -12833,18 +13336,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12872,10 +13375,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12886,34 +13389,34 @@
     <col min="10" max="10" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:12" ht="12.75">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -12926,14 +13429,14 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -12943,69 +13446,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="61" t="s">
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13015,9 +13521,11 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
+      <c r="J8" s="76"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="16" t="s">
         <v>169</v>
       </c>
@@ -13028,7 +13536,7 @@
         <v>169</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -13040,8 +13548,10 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1">
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>170</v>
       </c>
@@ -13050,7 +13560,7 @@
         <v>170</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -13062,8 +13572,10 @@
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="16" t="s">
         <v>120</v>
       </c>
@@ -13086,8 +13598,10 @@
         <v>22</v>
       </c>
       <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5">
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5">
       <c r="A12" s="16" t="s">
         <v>70</v>
       </c>
@@ -13110,25 +13624,33 @@
       <c r="J12" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="12.75">
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75">
       <c r="A14" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="409.5" customHeight="1">
-      <c r="A15" s="59" t="s">
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:12" ht="409.5" customHeight="1">
+      <c r="A15" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13156,10 +13678,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13174,30 +13696,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13212,11 +13734,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13224,74 +13746,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13301,17 +13823,17 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>187</v>
@@ -13336,12 +13858,10 @@
         <v>188</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
-        <v>243</v>
-      </c>
+      <c r="F10" s="43"/>
       <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
@@ -13353,19 +13873,17 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="43" t="s">
-        <v>243</v>
-      </c>
+      <c r="F11" s="43"/>
       <c r="G11" s="14" t="s">
         <v>23</v>
       </c>
@@ -13377,14 +13895,14 @@
     </row>
     <row r="12" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="35"/>
@@ -13396,19 +13914,19 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="35"/>
@@ -13420,19 +13938,19 @@
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="35"/>
@@ -13446,19 +13964,19 @@
         <v>22</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="35"/>
@@ -13472,19 +13990,19 @@
         <v>22</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>211</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>215</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="39"/>
@@ -13496,19 +14014,19 @@
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="34"/>
@@ -13520,27 +14038,72 @@
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12.75">
-      <c r="A19" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="45" customFormat="1" ht="16.5">
+      <c r="A18" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="19">
+        <v>10</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" s="45" customFormat="1" ht="16.5">
+      <c r="A19" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19">
+        <v>20</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75"/>
+    <row r="22" spans="1:10" ht="12.75">
+      <c r="A22" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A20" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+    <row r="23" spans="1:10" ht="118.5" customHeight="1">
+      <c r="A23" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13550,7 +14113,7 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
@@ -13572,7 +14135,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13587,30 +14150,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13625,11 +14188,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13637,74 +14200,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="D5" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="B6" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13714,20 +14277,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="34"/>
@@ -13742,19 +14305,17 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="43" t="s">
-        <v>243</v>
-      </c>
+      <c r="F10" s="43"/>
       <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
@@ -13766,19 +14327,17 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="43" t="s">
-        <v>243</v>
-      </c>
+      <c r="F11" s="43"/>
       <c r="G11" s="14" t="s">
         <v>23</v>
       </c>
@@ -13790,14 +14349,14 @@
     </row>
     <row r="12" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -13811,19 +14370,19 @@
         <v>22</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -13838,14 +14397,14 @@
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="34"/>
@@ -13866,18 +14425,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A17" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
+      <c r="A17" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F196A60-2458-4CA7-854D-4AAC26CB527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A56079-3F9F-4BA7-B91A-A1E3BDAD0A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="HRTGRADEINFO " sheetId="5" r:id="rId5"/>
     <sheet name="HRTANNUALDETAIL" sheetId="6" r:id="rId6"/>
     <sheet name="HRTTIMEITEM" sheetId="7" r:id="rId7"/>
-    <sheet name="HRTSHIFTAPL" sheetId="8" r:id="rId8"/>
+    <sheet name="HRTATTAPL" sheetId="8" r:id="rId8"/>
     <sheet name="HRTAPRHIST" sheetId="9" r:id="rId9"/>
     <sheet name="HRTATTRECORD" sheetId="10" r:id="rId10"/>
     <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId11"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="279">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -263,9 +263,6 @@
     <t>SHIFT_NAME</t>
   </si>
   <si>
-    <t>근태명</t>
-  </si>
-  <si>
     <t>HRTTIMEITEM 참고</t>
   </si>
   <si>
@@ -549,10 +546,6 @@
   </si>
   <si>
     <t>직위</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>근태코드</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -8630,10 +8623,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>FK, HRTSHIFTMASTER 참조</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>근태항목코드   FK, HRTTIMEITEM 참조</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8662,10 +8651,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>신청 패턴 코드 FK, HRTSHIFTPATTERNDTL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>신청대상자 사원 코드 FK, HRIMASTER</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8686,10 +8671,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>신청번호 FK, HRISHIFTAPL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>요일별 근무패턴</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8762,14 +8743,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>월요일 근무조 FK, HRTSHIFTMASTER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 근무조명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>결재자 사원코드 FK, HRIMASTER</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8783,6 +8756,62 @@
   </si>
   <si>
     <t>Y/N (default N)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_ITEM_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태항목코드 FK, HRTTIMEITEM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태코드 FK, HRTSHIFTMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK, 셀프 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK, HRTSHIFTPATTERNDTL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청번호 FK, HRTATTAPL</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -9429,27 +9458,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9476,7 +9487,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9701,8 +9730,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9714,30 +9743,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9752,11 +9781,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -9769,69 +9798,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -9841,7 +9870,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -9869,14 +9898,14 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -9997,7 +10026,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="13" t="s">
@@ -10053,7 +10082,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -10131,7 +10160,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="13" t="s">
@@ -10153,11 +10182,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -10179,11 +10208,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -10199,17 +10228,17 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+        <v>268</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
@@ -10220,7 +10249,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75">
@@ -10229,21 +10258,27 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
+      <c r="A26" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A26:J26"/>
@@ -10254,12 +10289,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10275,7 +10304,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10290,30 +10319,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10328,11 +10357,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10340,74 +10369,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10421,16 +10450,16 @@
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="39"/>
@@ -10445,17 +10474,17 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="14" t="s">
@@ -10469,14 +10498,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
@@ -10488,19 +10517,19 @@
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -10514,19 +10543,19 @@
         <v>22</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -10540,7 +10569,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75">
@@ -10550,20 +10579,26 @@
     </row>
     <row r="16" spans="1:10" ht="83.25" customHeight="1">
       <c r="A16" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
+        <v>190</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -10571,12 +10606,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10590,8 +10619,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10606,30 +10635,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10644,11 +10673,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10656,74 +10685,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10737,16 +10766,16 @@
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="39"/>
@@ -10761,14 +10790,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -10785,14 +10814,14 @@
     </row>
     <row r="11" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="32" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
@@ -10809,14 +10838,14 @@
     </row>
     <row r="12" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -10833,14 +10862,14 @@
     </row>
     <row r="13" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="32" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="32" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -10857,13 +10886,15 @@
     </row>
     <row r="14" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>255</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="39"/>
       <c r="G14" s="14" t="s">
@@ -10879,14 +10910,14 @@
     </row>
     <row r="15" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="39"/>
@@ -10903,13 +10934,15 @@
     </row>
     <row r="16" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>257</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="39"/>
       <c r="G16" s="14" t="s">
@@ -10925,14 +10958,14 @@
     </row>
     <row r="17" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="39"/>
@@ -10949,13 +10982,15 @@
     </row>
     <row r="18" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>259</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
       <c r="G18" s="14" t="s">
@@ -10971,14 +11006,14 @@
     </row>
     <row r="19" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="39"/>
@@ -10995,13 +11030,15 @@
     </row>
     <row r="20" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="18"/>
+        <v>261</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="39"/>
       <c r="G20" s="14" t="s">
@@ -11017,14 +11054,14 @@
     </row>
     <row r="21" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="32" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="39"/>
@@ -11041,13 +11078,15 @@
     </row>
     <row r="22" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="18"/>
+        <v>263</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="39"/>
       <c r="G22" s="14" t="s">
@@ -11063,14 +11102,14 @@
     </row>
     <row r="23" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="39"/>
@@ -11087,13 +11126,15 @@
     </row>
     <row r="24" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>265</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="39"/>
       <c r="G24" s="14" t="s">
@@ -11114,20 +11155,26 @@
     </row>
     <row r="27" spans="1:10" ht="83.25" customHeight="1">
       <c r="A27" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+        <v>190</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -11135,12 +11182,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11155,8 +11196,8 @@
   </sheetPr>
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11168,30 +11209,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -11206,11 +11247,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -11223,69 +11264,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11346,7 +11387,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="2"/>
@@ -11356,7 +11397,9 @@
       <c r="D11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="41" t="s">
+        <v>275</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
@@ -11383,14 +11426,14 @@
         <v>62</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>22</v>
@@ -11501,19 +11544,19 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -11534,19 +11577,19 @@
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
       <c r="A20" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+        <v>177</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11578,7 +11621,7 @@
   <dimension ref="A2:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11589,30 +11632,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11627,11 +11670,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11639,74 +11682,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11747,7 +11790,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="16"/>
       <c r="D10" s="18" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -11762,15 +11805,15 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
+      <c r="D11" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -11779,19 +11822,19 @@
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
@@ -11803,19 +11846,19 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
@@ -11830,12 +11873,12 @@
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16"/>
       <c r="D14" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
@@ -11847,17 +11890,17 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16"/>
       <c r="D15" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
@@ -11872,15 +11915,15 @@
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="D16" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -11891,20 +11934,20 @@
         <v>22</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
+      <c r="D17" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -11918,15 +11961,15 @@
     </row>
     <row r="18" spans="1:10" ht="16.5">
       <c r="A18" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="D18" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -11937,20 +11980,20 @@
         <v>22</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
+      <c r="D19" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -11964,15 +12007,15 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="D20" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -11983,20 +12026,20 @@
         <v>22</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="D21" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -12010,15 +12053,15 @@
     </row>
     <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="D22" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -12029,20 +12072,20 @@
         <v>22</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+      <c r="D23" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -12056,15 +12099,15 @@
     </row>
     <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="D24" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -12073,20 +12116,20 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
+      <c r="D25" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -12098,15 +12141,15 @@
     </row>
     <row r="26" spans="1:10" ht="16.5">
       <c r="A26" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="D26" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -12115,20 +12158,20 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5">
       <c r="A27" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
+      <c r="D27" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -12140,15 +12183,15 @@
     </row>
     <row r="28" spans="1:10" ht="16.5">
       <c r="A28" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="D28" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -12159,20 +12202,20 @@
         <v>22</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5">
       <c r="A29" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
+      <c r="D29" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -12186,15 +12229,15 @@
     </row>
     <row r="30" spans="1:10" ht="16.5">
       <c r="A30" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="D30" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -12205,20 +12248,20 @@
         <v>22</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
+      <c r="D31" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -12232,15 +12275,15 @@
     </row>
     <row r="32" spans="1:10" ht="16.5">
       <c r="A32" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="D32" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -12258,11 +12301,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -12271,20 +12314,20 @@
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="16.5">
       <c r="A34" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
+      <c r="D34" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -12295,20 +12338,20 @@
         <v>22</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="16.5">
       <c r="A35" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
+      <c r="D35" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -12319,7 +12362,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="16.5">
@@ -12340,36 +12383,58 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
+      <c r="A39" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
@@ -12382,31 +12447,10 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12431,30 +12475,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12469,11 +12513,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12481,74 +12525,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12571,7 +12615,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -12586,14 +12630,14 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>134</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -12627,7 +12671,7 @@
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75">
@@ -12636,18 +12680,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
+      <c r="A17" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12691,30 +12735,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12729,11 +12773,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12741,74 +12785,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12846,19 +12890,19 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="19">
         <v>30</v>
@@ -12887,7 +12931,7 @@
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75">
@@ -12896,18 +12940,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
+      <c r="A14" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12951,30 +12995,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12989,11 +13033,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13001,74 +13045,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13091,10 +13135,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="s">
@@ -13108,17 +13152,17 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="s">
@@ -13142,7 +13186,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="13" t="s">
@@ -13156,14 +13200,14 @@
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
@@ -13175,19 +13219,19 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
@@ -13199,53 +13243,53 @@
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>22</v>
@@ -13254,80 +13298,80 @@
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>161</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5">
       <c r="A18" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>164</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75">
@@ -13336,18 +13380,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
+      <c r="A21" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13377,8 +13421,8 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13391,30 +13435,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13429,11 +13473,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -13441,77 +13485,77 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13527,16 +13571,16 @@
     </row>
     <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -13553,19 +13597,19 @@
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="19">
         <v>50</v>
@@ -13577,19 +13621,19 @@
     </row>
     <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="14">
         <v>300</v>
@@ -13622,7 +13666,7 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
@@ -13639,18 +13683,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
+      <c r="A15" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13680,8 +13724,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13696,30 +13740,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13734,11 +13778,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13746,74 +13790,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13827,16 +13871,16 @@
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="34"/>
@@ -13851,14 +13895,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
@@ -13873,14 +13917,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -13895,14 +13939,14 @@
     </row>
     <row r="12" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="35"/>
@@ -13914,19 +13958,19 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="35"/>
@@ -13938,19 +13982,19 @@
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="35"/>
@@ -13964,19 +14008,19 @@
         <v>22</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="35"/>
@@ -13990,19 +14034,19 @@
         <v>22</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="39"/>
@@ -14014,19 +14058,19 @@
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>210</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="34"/>
@@ -14038,19 +14082,19 @@
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A18" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
@@ -14065,14 +14109,14 @@
     </row>
     <row r="19" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A19" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="39"/>
@@ -14093,26 +14137,20 @@
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
       <c r="A23" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
+        <v>232</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -14120,6 +14158,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14135,7 +14179,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14150,30 +14194,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14188,11 +14232,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -14200,74 +14244,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14281,16 +14325,16 @@
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="34"/>
@@ -14305,14 +14349,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="43"/>
@@ -14327,14 +14371,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -14349,14 +14393,14 @@
     </row>
     <row r="12" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -14370,19 +14414,19 @@
         <v>22</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -14397,14 +14441,14 @@
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="34"/>
@@ -14426,26 +14470,20 @@
     </row>
     <row r="17" spans="1:10" ht="83.25" customHeight="1">
       <c r="A17" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
+        <v>190</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -14453,6 +14491,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A56079-3F9F-4BA7-B91A-A1E3BDAD0A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B4C91-692F-4999-953A-868E81F8AFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="2160" windowWidth="18420" windowHeight="12750" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,16 @@
     <sheet name="HRTAPRHIST" sheetId="9" r:id="rId9"/>
     <sheet name="HRTATTRECORD" sheetId="10" r:id="rId10"/>
     <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId11"/>
+    <sheet name="HRTSHIFTPATTERN" sheetId="12" r:id="rId12"/>
+    <sheet name="HRTPATTERNHIST" sheetId="14" r:id="rId13"/>
+    <sheet name="HRTSHIFTCALENDAR" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="297">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -8675,74 +8678,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>근무패턴코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>WORK_PATTERN_NAME</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>MON_SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MON_SHIFT_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUE_SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUE_SHIFT_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WED_SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WED_SHIFT_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>THU_SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>THU_SHIFT_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRI_SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRI_SHIFT_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAT_SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAT_SHIFT_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUN_SHIFT_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUN_SHIFT_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무패턴명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>결재자 사원코드 FK, HRIMASTER</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8775,22 +8714,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FK, 셀프 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>패턴코드</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8812,6 +8735,145 @@
   </si>
   <si>
     <t>신청번호 FK, HRTATTAPL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태패턴코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태패턴명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY_OF_WEEK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1: 월, 2:화 … 7:일)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_YN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부(Y/N)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>default: Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_AT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRTSHIFTPATTERN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태패턴 정의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRTSHIFTCALENDAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태패턴달력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태코드 FK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRTPATTERNHIST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태패턴변경이력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIST_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT, UPDATE, DELETE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEFORE_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경전패턴명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFTER_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경후패턴명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGED_AT</t>
+  </si>
+  <si>
+    <t>변경일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -8819,7 +8881,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8928,6 +8990,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -9384,7 +9453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9458,9 +9527,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9487,29 +9575,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9730,7 +9813,7 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -9743,30 +9826,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9781,11 +9864,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -9798,69 +9881,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -9870,7 +9953,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="60"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -10182,11 +10265,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -10208,11 +10291,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -10228,17 +10311,17 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+        <v>252</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
@@ -10249,7 +10332,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75">
@@ -10258,27 +10341,21 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A26:J26"/>
@@ -10289,6 +10366,12 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10319,30 +10402,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10357,11 +10440,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10374,69 +10457,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10446,7 +10529,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -10578,27 +10661,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -10606,6 +10683,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10617,10 +10700,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10635,30 +10718,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10673,11 +10756,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10690,69 +10773,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10762,7 +10845,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -10775,9 +10858,11 @@
         <v>243</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="41"/>
+        <v>262</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>270</v>
+      </c>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
         <v>23</v>
@@ -10788,16 +10873,16 @@
       <c r="I9" s="12"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>251</v>
+    <row r="10" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="32" t="s">
+        <v>264</v>
       </c>
       <c r="B10" s="24"/>
-      <c r="C10" s="16" t="s">
-        <v>251</v>
+      <c r="C10" s="32" t="s">
+        <v>264</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -10805,7 +10890,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>22</v>
@@ -10813,379 +10898,1474 @@
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>252</v>
+      <c r="A11" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="32" t="s">
-        <v>252</v>
+      <c r="C11" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="H11" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>268</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="12" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>253</v>
-      </c>
+      <c r="A12" s="32"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>274</v>
-      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="19">
-        <v>50</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="19">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="19">
-        <v>50</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="19">
-        <v>10</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="19">
-        <v>50</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="19">
-        <v>10</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="19">
-        <v>50</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="19">
-        <v>10</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="19">
-        <v>50</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="19">
-        <v>10</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="19">
-        <v>50</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="19">
-        <v>10</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="19">
-        <v>50</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75">
-      <c r="A26" s="25" t="s">
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="A14" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A27" s="75" t="s">
+    <row r="15" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A15" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A27:J27"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98702BBE-26D0-41B8-B549-2ED37F02270E}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="19">
+        <v>50</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="A11" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="19">
+        <v>8</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="32"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A16:J25"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6ABD25-DBB6-4D1A-A661-8FA60ABB95A5}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="19">
+        <v>50</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="A11" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="19">
+        <v>50</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="19">
+        <v>50</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="47" customFormat="1" ht="16.5">
+      <c r="A14" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="19">
+        <v>8</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" s="47" customFormat="1" ht="16.5">
+      <c r="A15" s="16"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" s="47" customFormat="1" ht="16.5">
+      <c r="A16" s="16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" s="47" customFormat="1" ht="16.5">
+      <c r="A17" s="16"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" s="47" customFormat="1" ht="16.5">
+      <c r="A18" s="16"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" s="47" customFormat="1" ht="16.5">
+      <c r="A19" s="16"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A22:J31"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80457D8-5AE1-4E0B-9EBD-C1C84DB81424}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="19">
+        <v>8</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="A11" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="32"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A16:J25"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11196,8 +12376,8 @@
   </sheetPr>
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11209,30 +12389,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -11247,11 +12427,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -11264,69 +12444,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11336,7 +12516,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -11397,9 +12577,7 @@
       <c r="D11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>275</v>
-      </c>
+      <c r="E11" s="41"/>
       <c r="F11" s="11"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
@@ -11553,10 +12731,10 @@
         <v>243</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -11576,20 +12754,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11620,7 +12798,7 @@
   </sheetPr>
   <dimension ref="A2:Y39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -11632,30 +12810,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11670,11 +12848,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11687,69 +12865,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11759,7 +12937,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11790,7 +12968,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="16"/>
       <c r="D10" s="18" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -11809,11 +12987,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -11919,11 +13097,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -11943,11 +13121,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -11965,11 +13143,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -11989,11 +13167,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -12011,11 +13189,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -12035,11 +13213,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -12057,11 +13235,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -12081,11 +13259,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -12103,11 +13281,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -12125,11 +13303,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -12145,11 +13323,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -12167,11 +13345,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -12187,11 +13365,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -12211,11 +13389,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -12233,11 +13411,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -12257,11 +13435,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -12279,11 +13457,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -12301,11 +13479,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -12323,11 +13501,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -12347,11 +13525,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -12383,58 +13561,36 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
@@ -12447,6 +13603,28 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12475,30 +13653,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12513,11 +13691,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12530,69 +13708,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12602,7 +13780,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -12680,18 +13858,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12735,30 +13913,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12773,11 +13951,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12790,69 +13968,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12862,7 +14040,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -12940,18 +14118,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12995,30 +14173,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13033,11 +14211,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13050,69 +14228,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13122,7 +14300,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="32" t="s">
@@ -13380,18 +14558,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13435,30 +14613,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13473,11 +14651,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -13490,72 +14668,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13565,7 +14743,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
@@ -13683,18 +14861,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13740,30 +14918,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13778,11 +14956,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13795,69 +14973,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13867,7 +15045,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -13917,14 +15095,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -14136,21 +15314,27 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -14158,12 +15342,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14194,30 +15372,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14232,11 +15410,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -14249,69 +15427,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14321,7 +15499,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -14356,7 +15534,7 @@
         <v>214</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="43"/>
@@ -14378,7 +15556,7 @@
         <v>215</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -14469,21 +15647,27 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -14491,12 +15675,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhkim1220\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B4C91-692F-4999-953A-868E81F8AFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="2160" windowWidth="18420" windowHeight="12750" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="2160" windowWidth="18420" windowHeight="12750" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -20,20 +19,21 @@
     <sheet name="HRTGRADEINFO " sheetId="5" r:id="rId5"/>
     <sheet name="HRTANNUALDETAIL" sheetId="6" r:id="rId6"/>
     <sheet name="HRTTIMEITEM" sheetId="7" r:id="rId7"/>
-    <sheet name="HRTATTAPL" sheetId="8" r:id="rId8"/>
-    <sheet name="HRTAPRHIST" sheetId="9" r:id="rId9"/>
-    <sheet name="HRTATTRECORD" sheetId="10" r:id="rId10"/>
-    <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId11"/>
-    <sheet name="HRTSHIFTPATTERN" sheetId="12" r:id="rId12"/>
-    <sheet name="HRTPATTERNHIST" sheetId="14" r:id="rId13"/>
-    <sheet name="HRTSHIFTCALENDAR" sheetId="13" r:id="rId14"/>
+    <sheet name="HRTATTAPLGENERAL" sheetId="8" r:id="rId8"/>
+    <sheet name="HRTATTAPLETC" sheetId="15" r:id="rId9"/>
+    <sheet name="HRTAPRHIST" sheetId="9" r:id="rId10"/>
+    <sheet name="HRTATTRECORD" sheetId="10" r:id="rId11"/>
+    <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId12"/>
+    <sheet name="HRTSHIFTPATTERN" sheetId="12" r:id="rId13"/>
+    <sheet name="HRTPATTERNHIST" sheetId="14" r:id="rId14"/>
+    <sheet name="HRTSHIFTCALENDAR" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="311">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -8876,11 +8876,67 @@
     <t>변경일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>APPLY_CATEGORY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청카테고리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL/ETC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태코드 FK, HRTSHIFTMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REASON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET_START_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET_END_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 시작일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 종료일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLY_DATETIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청시각</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일이전신청/당일신청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="10"/>
@@ -9453,7 +9509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9528,27 +9584,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9575,7 +9615,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9592,7 +9650,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9807,7 +9864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9826,30 +9883,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9864,11 +9921,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -9881,69 +9938,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -9953,7 +10010,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -10265,11 +10322,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -10291,11 +10348,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -10317,11 +10374,11 @@
       <c r="C23" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
@@ -10341,21 +10398,27 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A26:J26"/>
@@ -10366,12 +10429,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10380,7 +10437,364 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E92EA4-B927-4870-9ECE-8C2E4C20E988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="33" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" style="33"/>
+    <col min="10" max="10" width="77" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="12.5703125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:10" ht="12.75">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="79"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="19">
+        <v>20</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="19">
+        <v>20</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" s="37" customFormat="1" ht="16.5">
+      <c r="A13" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="19">
+        <v>8</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="37" customFormat="1" ht="16.5">
+      <c r="A14" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="19">
+        <v>10</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5">
+      <c r="A15" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="19">
+        <v>100</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75">
+      <c r="A17" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A18" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10402,30 +10816,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10440,11 +10854,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10457,69 +10871,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10529,7 +10943,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -10661,21 +11075,27 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -10683,27 +11103,21 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600514B9-8324-4329-9CB4-60EFED99BAB3}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10718,30 +11132,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10756,11 +11170,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10773,69 +11187,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10845,7 +11259,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -10923,52 +11337,40 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="25" t="s">
+    <row r="13" spans="1:10" ht="12.75">
+      <c r="A13" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A15" s="76" t="s">
+    <row r="14" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A14" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10976,12 +11378,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98702BBE-26D0-41B8-B549-2ED37F02270E}">
-  <dimension ref="A1:J25"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11006,30 +11408,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11044,11 +11446,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11061,69 +11463,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11133,7 +11535,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11233,20 +11635,22 @@
       </c>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="26"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="47"/>
+      <c r="A14" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -11257,145 +11661,131 @@
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A16" s="78" t="s">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:J25"/>
+    <mergeCell ref="A15:J24"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -11414,12 +11804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6ABD25-DBB6-4D1A-A661-8FA60ABB95A5}">
-  <dimension ref="A1:J31"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11444,30 +11834,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11482,11 +11872,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11499,69 +11889,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11571,7 +11961,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11629,11 +12019,11 @@
       <c r="C11" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="81" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="14" t="s">
         <v>267</v>
       </c>
@@ -11690,18 +12080,18 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" s="47" customFormat="1" ht="16.5">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="49" t="s">
         <v>295</v>
       </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="14" t="s">
         <v>267</v>
       </c>
@@ -11711,244 +12101,183 @@
       <c r="I14" s="24"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" s="47" customFormat="1" ht="16.5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" s="47" customFormat="1" ht="16.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" s="47" customFormat="1" ht="16.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="79"/>
+    <row r="15" spans="1:10">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" s="47" customFormat="1" ht="16.5">
-      <c r="A18" s="16"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" s="47" customFormat="1" ht="16.5">
-      <c r="A19" s="16"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A22:J31"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A17:J26"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80457D8-5AE1-4E0B-9EBD-C1C84DB81424}">
-  <dimension ref="A1:J25"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:J25"/>
+      <selection activeCell="A14" sqref="A14:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11973,30 +12302,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12011,11 +12340,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12028,69 +12357,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12100,7 +12429,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -12176,193 +12505,169 @@
       </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="26"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="A14" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:J25"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A14:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12370,7 +12675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12389,30 +12694,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12427,11 +12732,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12444,69 +12749,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12516,7 +12821,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -12754,20 +13059,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12792,7 +13097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12810,30 +13115,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12848,11 +13153,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12865,69 +13170,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12937,7 +13242,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -12987,11 +13292,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -13097,11 +13402,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -13121,11 +13426,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -13143,11 +13448,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -13167,11 +13472,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -13189,11 +13494,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -13213,11 +13518,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -13235,11 +13540,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -13259,11 +13564,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -13281,11 +13586,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -13303,11 +13608,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -13323,11 +13628,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -13345,11 +13650,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -13365,11 +13670,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -13389,11 +13694,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -13411,11 +13716,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -13435,11 +13740,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -13457,11 +13762,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -13479,11 +13784,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -13501,11 +13806,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -13525,11 +13830,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -13561,36 +13866,58 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
@@ -13603,28 +13930,6 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13633,7 +13938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13653,30 +13958,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -13691,11 +13996,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -13708,69 +14013,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13780,7 +14085,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -13858,18 +14163,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13893,7 +14198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13913,30 +14218,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -13951,11 +14256,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -13968,69 +14273,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14040,7 +14345,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14118,18 +14423,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14153,7 +14458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14173,30 +14478,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14211,11 +14516,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -14228,69 +14533,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14300,7 +14605,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="32" t="s">
@@ -14558,18 +14863,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14593,7 +14898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14613,30 +14918,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14651,11 +14956,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -14668,72 +14973,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14743,7 +15048,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
@@ -14861,18 +15166,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14896,14 +15201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F6E263-ACE6-40E2-87A6-CD22C165A348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14918,30 +15223,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14956,11 +15261,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -14973,69 +15278,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15045,7 +15350,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -15314,27 +15619,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -15342,6 +15641,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15350,52 +15655,52 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A7D74F-25EB-4F02-AC1E-8263B530B0D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="33" customWidth="1"/>
-    <col min="4" max="9" width="12.5703125" style="33"/>
-    <col min="10" max="10" width="77" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="1" width="26.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="48" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" style="48"/>
+    <col min="10" max="10" width="77" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="12.5703125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15410,11 +15715,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15422,74 +15727,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="D5" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="B6" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15499,23 +15804,23 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="34"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
         <v>23</v>
       </c>
@@ -15527,16 +15832,16 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>244</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="43"/>
       <c r="G10" s="14" t="s">
         <v>23</v>
@@ -15549,14 +15854,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -15564,21 +15869,21 @@
         <v>23</v>
       </c>
       <c r="H11" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" s="37" customFormat="1" ht="16.5">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -15588,23 +15893,21 @@
       <c r="H12" s="19">
         <v>8</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="I12" s="24"/>
       <c r="J12" s="26" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="37" customFormat="1" ht="16.5">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -15612,69 +15915,190 @@
         <v>23</v>
       </c>
       <c r="H13" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="24"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="34"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="19">
+        <v>4</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5">
+      <c r="A15" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5">
+      <c r="A16" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="19">
         <v>100</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="25" t="s">
+      <c r="J16" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5">
+      <c r="A17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="19">
+        <v>10</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5">
+      <c r="A18" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="19">
+        <v>10</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5">
+      <c r="A19" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19">
+        <v>20</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75"/>
+    <row r="22" spans="1:10" ht="12.75">
+      <c r="A22" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A17" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+    <row r="23" spans="1:10" ht="118.5" customHeight="1">
+      <c r="A23" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhkim1220\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DEC040-91CA-4B18-AF7B-BBC26927B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="2160" windowWidth="18420" windowHeight="12750" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="311">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -7960,10 +7961,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>APPLY_NO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>APPROVER_CODE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8016,10 +8013,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>HRTATTAPL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>신청하려는 근무일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8674,10 +8667,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>요일별 근무패턴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>WORK_PATTERN_NAME</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8734,10 +8723,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>신청번호 FK, HRTATTAPL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>근태패턴코드</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8754,10 +8739,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>요일</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8766,10 +8747,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>(1: 월, 2:화 … 7:일)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> FK</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8877,18 +8854,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>APPLY_CATEGORY</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청카테고리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENERAL/ETC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SHIFT_CODE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8930,13 +8895,49 @@
   </si>
   <si>
     <t>1일이전신청/당일신청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자별 근무패턴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLY_GENERAL_NO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLY_ETC_NO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청번호 FK, HRTATTAPLGENERAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청번호 FK, HRTATTAPLETC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRTATTAPLGENERAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRTATTAPLETC</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="10"/>
@@ -9081,7 +9082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -9505,11 +9506,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9585,7 +9614,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9864,14 +9897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9883,30 +9916,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9921,11 +9954,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -9938,69 +9971,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10010,7 +10043,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="63"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -10077,7 +10110,9 @@
       <c r="H11" s="19">
         <v>30</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
@@ -10166,7 +10201,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="13" t="s">
@@ -10222,7 +10257,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -10300,7 +10335,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="13" t="s">
@@ -10322,11 +10357,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -10348,11 +10383,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -10368,28 +10403,26 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+        <v>249</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="24">
         <v>1</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75">
@@ -10398,18 +10431,18 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10437,14 +10470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10459,30 +10492,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10497,11 +10530,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10514,69 +10547,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10586,7 +10619,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -10599,7 +10632,7 @@
         <v>213</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="34"/>
@@ -10612,16 +10645,16 @@
       <c r="I9" s="12"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:10" s="49" customFormat="1" ht="16.5">
       <c r="A10" s="32" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="43"/>
@@ -10631,19 +10664,21 @@
       <c r="H10" s="19">
         <v>20</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>297</v>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A11" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="16" t="s">
-        <v>297</v>
+      <c r="C11" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -10651,23 +10686,23 @@
         <v>23</v>
       </c>
       <c r="H11" s="19">
-        <v>10</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="26" t="s">
-        <v>299</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="43"/>
@@ -10689,7 +10724,7 @@
         <v>189</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -10708,14 +10743,14 @@
     </row>
     <row r="14" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="39"/>
@@ -10730,14 +10765,14 @@
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="34"/>
@@ -10758,18 +10793,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10794,14 +10829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10816,30 +10851,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10854,11 +10889,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10871,69 +10906,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10943,20 +10978,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="39"/>
@@ -10981,7 +11016,7 @@
         <v>187</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="14" t="s">
@@ -11002,7 +11037,7 @@
         <v>201</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
@@ -11019,14 +11054,14 @@
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -11045,14 +11080,14 @@
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -11075,18 +11110,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11110,14 +11145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11132,30 +11167,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11170,11 +11205,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11187,69 +11222,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="B6" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11259,23 +11294,23 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
@@ -11289,14 +11324,14 @@
     </row>
     <row r="10" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -11313,29 +11348,23 @@
     </row>
     <row r="11" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>269</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
       <c r="A13" s="25" t="s">
@@ -11343,18 +11372,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11379,7 +11408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11408,30 +11437,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11446,11 +11475,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11458,74 +11487,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="B6" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11535,20 +11564,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="39"/>
@@ -11563,14 +11592,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -11587,51 +11616,51 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="32" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H11" s="19">
         <v>1</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
       <c r="G12" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H12" s="19">
         <v>8</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J12" s="26"/>
     </row>
@@ -11662,126 +11691,126 @@
       <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11805,11 +11834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11834,30 +11863,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11872,11 +11901,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11884,74 +11913,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="B6" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11961,23 +11990,23 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
@@ -11991,14 +12020,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -12013,43 +12042,43 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
+        <v>283</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H11" s="19">
         <v>10</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
       <c r="G12" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H12" s="19">
         <v>50</v>
@@ -12059,19 +12088,19 @@
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
       <c r="G13" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H13" s="19">
         <v>50</v>
@@ -12080,20 +12109,20 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" s="47" customFormat="1" ht="16.5">
-      <c r="A14" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
+      <c r="A14" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H14" s="19">
         <v>8</v>
@@ -12128,126 +12157,126 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12273,11 +12302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12302,30 +12331,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12340,11 +12369,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12352,74 +12381,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="D5" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="B6" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12429,23 +12458,23 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
@@ -12459,14 +12488,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -12483,25 +12512,25 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H11" s="19">
         <v>10</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J11" s="26"/>
     </row>
@@ -12532,126 +12561,126 @@
       <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12675,14 +12704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12694,30 +12723,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12732,11 +12761,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12749,69 +12778,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12821,7 +12850,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -12909,7 +12938,7 @@
         <v>62</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
@@ -13027,19 +13056,19 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -13059,20 +13088,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13097,7 +13126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13115,30 +13144,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13153,11 +13182,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13170,69 +13199,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13242,7 +13271,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -13273,7 +13302,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="16"/>
       <c r="D10" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -13292,11 +13321,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -13402,11 +13431,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -13426,11 +13455,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -13448,11 +13477,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -13472,11 +13501,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -13494,11 +13523,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -13518,11 +13547,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -13540,11 +13569,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -13564,11 +13593,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -13586,11 +13615,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -13608,11 +13637,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -13628,11 +13657,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -13650,11 +13679,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -13670,11 +13699,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -13694,11 +13723,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -13716,11 +13745,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -13740,11 +13769,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -13762,11 +13791,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -13784,11 +13813,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -13806,11 +13835,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -13830,11 +13859,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -13866,33 +13895,33 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -13938,7 +13967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13958,30 +13987,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -13996,11 +14025,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14013,69 +14042,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14085,7 +14114,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14163,18 +14192,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14198,7 +14227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14218,30 +14247,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14256,11 +14285,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14273,69 +14302,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14345,7 +14374,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14423,18 +14452,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14458,7 +14487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14478,30 +14507,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14516,11 +14545,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -14533,69 +14562,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14605,7 +14634,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="32" t="s">
@@ -14621,7 +14650,7 @@
         <v>143</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="s">
@@ -14645,7 +14674,7 @@
         <v>171</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="s">
@@ -14669,7 +14698,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="13" t="s">
@@ -14863,18 +14892,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14898,7 +14927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14918,30 +14947,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14956,11 +14985,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -14973,72 +15002,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15048,7 +15077,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
@@ -15063,7 +15092,7 @@
         <v>168</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -15087,7 +15116,7 @@
         <v>169</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -15166,18 +15195,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15201,14 +15230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15223,30 +15252,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15261,11 +15290,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15273,74 +15302,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15350,17 +15379,17 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>185</v>
@@ -15385,7 +15414,7 @@
         <v>186</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
@@ -15400,14 +15429,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -15446,14 +15475,14 @@
     </row>
     <row r="13" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="35"/>
@@ -15541,7 +15570,7 @@
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="45" customFormat="1" ht="16.5">
@@ -15570,14 +15599,14 @@
     </row>
     <row r="18" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A18" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
@@ -15592,14 +15621,14 @@
     </row>
     <row r="19" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A19" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="39"/>
@@ -15619,18 +15648,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15655,14 +15684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15677,30 +15706,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15715,11 +15744,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15727,74 +15756,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15804,17 +15833,17 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>185</v>
@@ -15839,7 +15868,7 @@
         <v>186</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
@@ -15854,14 +15883,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -15900,14 +15929,14 @@
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -15924,14 +15953,14 @@
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="39"/>
@@ -15939,7 +15968,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="26" t="s">
@@ -15948,14 +15977,14 @@
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="39"/>
@@ -15963,23 +15992,23 @@
         <v>23</v>
       </c>
       <c r="H15" s="19">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="26" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="39"/>
@@ -15992,9 +16021,7 @@
       <c r="I16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="26" t="s">
-        <v>236</v>
-      </c>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="16" t="s">
@@ -16022,14 +16049,14 @@
     </row>
     <row r="18" spans="1:10" ht="16.5">
       <c r="A18" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
@@ -16044,14 +16071,14 @@
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="39"/>
@@ -16071,18 +16098,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DEC040-91CA-4B18-AF7B-BBC26927B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCFA474-5420-44B5-AC82-338BA62BB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,18 @@
     <sheet name="HRTATTAPLETC" sheetId="15" r:id="rId9"/>
     <sheet name="HRTAPRHIST" sheetId="9" r:id="rId10"/>
     <sheet name="HRTATTRECORD" sheetId="10" r:id="rId11"/>
-    <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId12"/>
-    <sheet name="HRTSHIFTPATTERN" sheetId="12" r:id="rId13"/>
-    <sheet name="HRTPATTERNHIST" sheetId="14" r:id="rId14"/>
-    <sheet name="HRTSHIFTCALENDAR" sheetId="13" r:id="rId15"/>
+    <sheet name="HRTEMPSHIFTPATTERNHIST" sheetId="16" r:id="rId12"/>
+    <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId13"/>
+    <sheet name="HRTSHIFTPATTERN" sheetId="12" r:id="rId14"/>
+    <sheet name="HRTPATTERNHIST" sheetId="14" r:id="rId15"/>
+    <sheet name="HRTSHIFTCALENDAR" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="332">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -7320,10 +7321,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>신청코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>EMP_CODE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -7957,10 +7954,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>HIST_NO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>APPROVER_CODE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8931,6 +8924,685 @@
   </si>
   <si>
     <t>HRTATTAPLETC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVAL_NO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRTEMPSHIFTPATTERNHIST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원근무패턴이력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_PATTERN_ID</t>
+  </si>
+  <si>
+    <t>CHANGE_REASON</t>
+  </si>
+  <si>
+    <t>CHANGE_REASON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>사원 근무패턴 이력 ID</t>
+  </si>
+  <si>
+    <t>사원번호 (FK HRIMASTER)</t>
+  </si>
+  <si>
+    <t>적용 당시 부서코드 (FK ORGDEPTMASTER)</t>
+  </si>
+  <si>
+    <t>등록일자 (이력 생성일)</t>
+  </si>
+  <si>
+    <t>등록자 사번 (FK HRIMASTER)</t>
+  </si>
+  <si>
+    <t>변경 사유</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 시작일 (YYYYMMDD)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 종료일 (YYYYMMDD)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입사</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시점</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경영기획팀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주간근무</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+INSERT INTO HRTEMPSHIFTPATTERNHIST  VALUES (
+    'H0001', '000001', 'G1110', '20250101', '20250331', '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입사</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배정</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '20250101', '999999'
+);
+-- 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서이동</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안전환경</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>야간근무로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+INSERT INTO HRTEMPSHIFTPATTERNHIST VALUES (
+    'H0002', '000001', 'G1510', '20250401', '20250630', '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발령으로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '20250401', '999999'
+);
+-- 7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경영기획팀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복귀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주간근무로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복귀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+INSERT INTO HRTEMPSHIFTPATTERNHIST VALUES (
+    'H0003', '000001', 'G1110', '20250701', '99991234', '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원부서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복귀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '20250701', '999999'
+);'</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_WORKING_HOURS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>총근무시간</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -8938,7 +9610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9054,6 +9726,22 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -9538,7 +10226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9619,6 +10307,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9671,6 +10361,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9916,30 +10610,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9954,11 +10648,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -9971,69 +10665,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10043,7 +10737,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="65"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -10201,7 +10895,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="13" t="s">
@@ -10257,7 +10951,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -10335,7 +11029,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="13" t="s">
@@ -10357,11 +11051,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -10383,11 +11077,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -10403,17 +11097,17 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+        <v>247</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
@@ -10422,7 +11116,7 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75">
@@ -10431,18 +11125,18 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10477,7 +11171,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10492,30 +11186,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10530,11 +11224,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10542,74 +11236,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="B6" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10619,20 +11313,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="34"/>
@@ -10647,14 +11341,14 @@
     </row>
     <row r="10" spans="1:10" s="49" customFormat="1" ht="16.5">
       <c r="A10" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>305</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>307</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="43"/>
@@ -10671,14 +11365,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -10695,14 +11389,14 @@
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="43"/>
@@ -10717,14 +11411,14 @@
     </row>
     <row r="13" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -10738,19 +11432,19 @@
         <v>22</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="39"/>
@@ -10765,14 +11459,14 @@
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="34"/>
@@ -10793,18 +11487,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
+      <c r="A18" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10851,30 +11545,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10889,11 +11583,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10901,74 +11595,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="B6" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10978,20 +11672,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="39"/>
@@ -11006,17 +11700,17 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="E10" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="14" t="s">
@@ -11030,14 +11724,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
@@ -11049,19 +11743,19 @@
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -11075,19 +11769,19 @@
         <v>22</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -11101,7 +11795,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75">
@@ -11110,18 +11804,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A16" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
+      <c r="A16" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11145,14 +11839,389 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC6F74D-C288-4295-90D5-8178646B4E65}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="52" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" style="52"/>
+    <col min="10" max="10" width="77" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="12.5703125" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:10" ht="12.75">
+      <c r="A2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A10" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="19">
+        <v>20</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="A11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="19">
+        <v>8</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="19">
+        <v>8</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5">
+      <c r="A14" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="19">
+        <v>100</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5">
+      <c r="A15" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="19">
+        <v>8</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5">
+      <c r="A16" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="19">
+        <v>20</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75">
+      <c r="A18" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="200.25" customHeight="1">
+      <c r="A19" s="84" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11167,30 +12236,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11205,11 +12274,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11217,74 +12286,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="B6" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11294,23 +12363,23 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
@@ -11324,14 +12393,14 @@
     </row>
     <row r="10" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -11346,44 +12415,68 @@
       </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+    <row r="11" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="24"/>
+        <v>259</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="24"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="25" t="s">
+    <row r="12" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="A14" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A14" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+    <row r="15" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A15" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11393,7 +12486,7 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
@@ -11407,7 +12500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -11437,30 +12530,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11475,11 +12568,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11487,74 +12580,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="B6" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11564,20 +12657,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="39"/>
@@ -11592,14 +12685,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -11616,51 +12709,51 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H11" s="19">
         <v>1</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
       <c r="G12" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H12" s="19">
         <v>8</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J12" s="26"/>
     </row>
@@ -11691,126 +12784,126 @@
       <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
+      <c r="A15" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11833,7 +12926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -11863,30 +12956,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11901,11 +12994,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11913,74 +13006,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="B6" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11990,23 +13083,23 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>280</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>282</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
@@ -12020,14 +13113,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -12042,43 +13135,43 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
+        <v>281</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H11" s="19">
         <v>10</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
       <c r="G12" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H12" s="19">
         <v>50</v>
@@ -12088,19 +13181,19 @@
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
       <c r="G13" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H13" s="19">
         <v>50</v>
@@ -12110,19 +13203,19 @@
     </row>
     <row r="14" spans="1:10" s="47" customFormat="1" ht="16.5">
       <c r="A14" s="50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
+        <v>287</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H14" s="19">
         <v>8</v>
@@ -12157,126 +13250,126 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="A17" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12301,12 +13394,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12331,30 +13424,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12369,11 +13462,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12381,74 +13474,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="B6" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12458,23 +13551,21 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>22</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="14" t="s">
@@ -12488,14 +13579,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="39"/>
@@ -12505,32 +13596,30 @@
       <c r="H10" s="19">
         <v>8</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="I10" s="24"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="39"/>
       <c r="G11" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H11" s="19">
         <v>10</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J11" s="26"/>
     </row>
@@ -12561,126 +13650,126 @@
       <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
+      <c r="A14" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12711,7 +13800,7 @@
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12723,30 +13812,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -12761,11 +13850,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -12778,69 +13867,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12850,7 +13939,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -12938,7 +14027,7 @@
         <v>62</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
@@ -13056,19 +14145,19 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
@@ -13088,20 +14177,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13144,30 +14233,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13182,11 +14271,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13194,74 +14283,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="B6" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13271,7 +14360,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -13302,7 +14391,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="16"/>
       <c r="D10" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -13321,11 +14410,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -13431,11 +14520,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -13455,11 +14544,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -13477,11 +14566,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -13501,11 +14590,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -13523,11 +14612,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -13547,11 +14636,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -13569,11 +14658,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -13593,11 +14682,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -13615,11 +14704,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -13637,11 +14726,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -13657,11 +14746,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -13679,11 +14768,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -13699,11 +14788,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -13723,11 +14812,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -13745,11 +14834,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -13769,11 +14858,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -13791,11 +14880,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -13813,11 +14902,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -13835,11 +14924,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -13859,11 +14948,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -13895,33 +14984,33 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -13987,30 +15076,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14025,11 +15114,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14042,69 +15131,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14114,7 +15203,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14192,18 +15281,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14247,30 +15336,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14285,11 +15374,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14302,69 +15391,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14374,7 +15463,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14452,18 +15541,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14507,30 +15596,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14545,11 +15634,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -14562,69 +15651,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14634,7 +15723,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="32" t="s">
@@ -14650,7 +15739,7 @@
         <v>143</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="s">
@@ -14674,7 +15763,7 @@
         <v>171</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="s">
@@ -14698,7 +15787,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="13" t="s">
@@ -14892,18 +15981,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14947,30 +16036,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14985,11 +16074,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -15002,72 +16091,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15077,7 +16166,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
@@ -15092,7 +16181,7 @@
         <v>168</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -15116,7 +16205,7 @@
         <v>169</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -15195,18 +16284,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15237,7 +16326,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15252,30 +16341,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15290,11 +16379,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15302,74 +16391,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15379,20 +16468,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="34"/>
@@ -15407,14 +16496,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
@@ -15429,14 +16518,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -15451,14 +16540,14 @@
     </row>
     <row r="12" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="35"/>
@@ -15470,19 +16559,19 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="35"/>
@@ -15494,19 +16583,19 @@
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>202</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>203</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="35"/>
@@ -15520,19 +16609,19 @@
         <v>22</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="36" customFormat="1" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="35"/>
@@ -15546,19 +16635,19 @@
         <v>22</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="39"/>
@@ -15570,19 +16659,19 @@
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="34"/>
@@ -15594,19 +16683,19 @@
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A18" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
@@ -15621,14 +16710,14 @@
     </row>
     <row r="19" spans="1:10" s="45" customFormat="1" ht="16.5">
       <c r="A19" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="39"/>
@@ -15648,18 +16737,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
+      <c r="A23" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15691,7 +16780,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15706,30 +16795,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15744,11 +16833,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15756,74 +16845,74 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="75" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15833,20 +16922,20 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="39"/>
@@ -15861,14 +16950,14 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
@@ -15883,14 +16972,14 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="43"/>
@@ -15905,14 +16994,14 @@
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -15924,19 +17013,19 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>295</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
@@ -15948,19 +17037,19 @@
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>298</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="39"/>
@@ -15972,19 +17061,19 @@
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="39"/>
@@ -15996,19 +17085,19 @@
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="39"/>
@@ -16025,14 +17114,14 @@
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="39"/>
@@ -16044,19 +17133,19 @@
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5">
       <c r="A18" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
@@ -16071,14 +17160,14 @@
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="39"/>
@@ -16098,18 +17187,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
+      <c r="A23" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCFA474-5420-44B5-AC82-338BA62BB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFDFFE-C1F4-44A9-BCAC-BDD8E2678480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="3360" windowWidth="14400" windowHeight="11385" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="HRTATTAPLETC" sheetId="15" r:id="rId9"/>
     <sheet name="HRTAPRHIST" sheetId="9" r:id="rId10"/>
     <sheet name="HRTATTRECORD" sheetId="10" r:id="rId11"/>
-    <sheet name="HRTEMPSHIFTPATTERNHIST" sheetId="16" r:id="rId12"/>
+    <sheet name="HRTWORKEMPCALENDAR" sheetId="16" r:id="rId12"/>
     <sheet name="HRTSHIFTPATTERNDTL" sheetId="11" r:id="rId13"/>
     <sheet name="HRTSHIFTPATTERN" sheetId="12" r:id="rId14"/>
     <sheet name="HRTPATTERNHIST" sheetId="14" r:id="rId15"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="328">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -8935,674 +8935,71 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>HRTEMPSHIFTPATTERNHIST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>사원근무패턴이력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP_PATTERN_ID</t>
-  </si>
-  <si>
-    <t>CHANGE_REASON</t>
-  </si>
-  <si>
-    <t>CHANGE_REASON</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATED_AT</t>
-  </si>
-  <si>
-    <t>CREATED_AT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATED_BY</t>
-  </si>
-  <si>
-    <t>사원 근무패턴 이력 ID</t>
-  </si>
-  <si>
-    <t>사원번호 (FK HRIMASTER)</t>
-  </si>
-  <si>
-    <t>적용 당시 부서코드 (FK ORGDEPTMASTER)</t>
-  </si>
-  <si>
-    <t>등록일자 (이력 생성일)</t>
-  </si>
-  <si>
-    <t>등록자 사번 (FK HRIMASTER)</t>
-  </si>
-  <si>
-    <t>변경 사유</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용 시작일 (YYYYMMDD)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용 종료일 (YYYYMMDD)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입사</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시점</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경영기획팀</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주간근무</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-INSERT INTO HRTEMPSHIFTPATTERNHIST  VALUES (
-    'H0001', '000001', 'G1110', '20250101', '20250331', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입사</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기본</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배정</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', '20250101', '999999'
-);
--- 4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부서이동</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안전환경</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>야간근무로</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-INSERT INTO HRTEMPSHIFTPATTERNHIST VALUES (
-    'H0002', '000001', 'G1510', '20250401', '20250630', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부서</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발령으로</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', '20250401', '999999'
-);
--- 7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다시</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경영기획팀</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>복귀</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주간근무로</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>복귀</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-INSERT INTO HRTEMPSHIFTPATTERNHIST VALUES (
-    'H0003', '000001', 'G1110', '20250701', '99991234', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원부서</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>복귀</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', '20250701', '999999'
-);'</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>START_DATE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_DATE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TOTAL_WORKING_HOURS</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>총근무시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXN_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>채번용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYYMMDD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_CODE_ORIG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOILIDAY_YN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일여부</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 기본 값 : N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRTWORKEMPCALENDAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원근태계획표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원별 근태계획</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사번 FK, HRIMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태패턴 FK, HRTSHIFTPATTERN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서코드 FK, ORGDEPTMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 근태코드 FK, HRTSHIFTMASTER</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -9610,7 +9007,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9734,14 +9131,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -10226,7 +9615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10309,6 +9698,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -10610,30 +10011,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -10648,11 +10049,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -10665,69 +10066,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10737,7 +10138,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="67"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -11051,11 +10452,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -11077,11 +10478,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -11103,11 +10504,11 @@
       <c r="C23" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
@@ -11125,18 +10526,18 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -11186,30 +10587,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11224,11 +10625,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11241,69 +10642,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11313,7 +10714,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11487,18 +10888,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11545,30 +10946,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11583,11 +10984,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11600,69 +11001,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11672,7 +11073,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11804,18 +11205,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11845,8 +11246,8 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11861,30 +11262,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11899,86 +11300,86 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>311</v>
+      <c r="B5" s="62" t="s">
+        <v>321</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="D5" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="B6" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11988,189 +11389,193 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="16" t="s">
+      <c r="J8" s="93"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A9" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="19">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="C10" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="60">
         <v>20</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="16.5">
-      <c r="A11" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="39"/>
+      <c r="A11" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="19">
-        <v>10</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="14">
+        <v>8</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="19">
-        <v>8</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="14">
+        <v>10</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="19">
-        <v>8</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5">
-      <c r="A14" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="39"/>
+      <c r="H13" s="14">
+        <v>10</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" s="54" customFormat="1" ht="16.5">
+      <c r="A14" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="19">
-        <v>100</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="26"/>
+      <c r="H14" s="14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="16.5">
-      <c r="A15" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="19">
-        <v>8</v>
+      <c r="H15" s="14">
+        <v>10</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="16.5">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="19">
-        <v>20</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="59" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="12.75">
       <c r="A18" s="25" t="s">
@@ -12178,18 +11583,16 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="200.25" customHeight="1">
-      <c r="A19" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12220,8 +11623,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12236,30 +11639,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12274,11 +11677,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12291,69 +11694,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12363,7 +11766,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -12439,14 +11842,14 @@
     </row>
     <row r="12" spans="1:10" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="16" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="39"/>
@@ -12465,18 +11868,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12505,7 +11908,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12530,30 +11933,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12568,11 +11971,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12585,69 +11988,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12657,7 +12060,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -12784,126 +12187,126 @@
       <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12956,30 +12359,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12994,11 +12397,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13011,69 +12414,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13083,7 +12486,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -13141,11 +12544,11 @@
       <c r="C11" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="14" t="s">
         <v>260</v>
       </c>
@@ -13209,11 +12612,11 @@
       <c r="C14" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="14" t="s">
         <v>260</v>
       </c>
@@ -13250,126 +12653,126 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -13424,30 +12827,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13462,11 +12865,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13479,69 +12882,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13551,7 +12954,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -13650,126 +13053,126 @@
       <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13812,30 +13215,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -13850,11 +13253,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -13867,69 +13270,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13939,7 +13342,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14177,20 +13580,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14233,30 +13636,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -14271,11 +13674,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -14288,69 +13691,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14360,7 +13763,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -14410,11 +13813,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -14520,11 +13923,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -14544,11 +13947,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -14566,11 +13969,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -14590,11 +13993,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -14612,11 +14015,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -14636,11 +14039,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -14658,11 +14061,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -14682,11 +14085,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -14704,11 +14107,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -14726,11 +14129,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -14746,11 +14149,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -14768,11 +14171,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -14788,11 +14191,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -14812,11 +14215,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -14834,11 +14237,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -14858,11 +14261,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -14880,11 +14283,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -14902,11 +14305,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -14924,11 +14327,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -14948,11 +14351,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -14984,33 +14387,33 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -15076,30 +14479,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -15114,11 +14517,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -15131,69 +14534,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15203,7 +14606,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -15281,18 +14684,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15336,30 +14739,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -15374,11 +14777,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -15391,69 +14794,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15463,7 +14866,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -15541,18 +14944,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15596,30 +14999,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15634,11 +15037,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15651,69 +15054,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15723,7 +15126,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="32" t="s">
@@ -15981,18 +15384,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -16036,30 +15439,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -16074,11 +15477,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -16091,72 +15494,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -16166,7 +15569,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
@@ -16284,18 +15687,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -16341,30 +15744,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -16379,11 +15782,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -16396,69 +15799,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -16468,7 +15871,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -16737,18 +16140,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -16795,30 +16198,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -16833,11 +16236,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -16850,69 +16253,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -16922,7 +16325,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -17187,18 +16590,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFDFFE-C1F4-44A9-BCAC-BDD8E2678480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FE14A-C376-4F8C-AB9A-75A298D86DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="3360" windowWidth="14400" windowHeight="11385" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="2010" windowWidth="25095" windowHeight="13020" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="333">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -9000,6 +9000,26 @@
   </si>
   <si>
     <t>기존 근태코드 FK, HRTSHIFTMASTER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK_IN_DAY_TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK_OUT_DAY_TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근타입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근타입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>N0 : 당일 / N1 : 익일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -9615,7 +9635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9710,9 +9730,28 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9739,25 +9778,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10011,30 +10032,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -10049,11 +10070,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -10066,69 +10087,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10138,7 +10159,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="90"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -10452,11 +10473,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -10478,11 +10499,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -10504,11 +10525,11 @@
       <c r="C23" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
@@ -10526,27 +10547,21 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A26:J26"/>
@@ -10557,6 +10572,12 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10587,30 +10608,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10625,11 +10646,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10642,69 +10663,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10714,7 +10735,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -10888,21 +10909,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -10910,12 +10937,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10928,10 +10949,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10946,30 +10967,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10984,11 +11005,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11001,69 +11022,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11073,7 +11094,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11173,69 +11194,122 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
+    <row r="13" spans="1:10" s="64" customFormat="1" ht="16.5">
       <c r="A13" s="16" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="16" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="39"/>
       <c r="G13" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5">
+      <c r="A14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H14" s="19">
         <v>4</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J14" s="26" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:10" s="64" customFormat="1" ht="16.5">
+      <c r="A15" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75">
+      <c r="A17" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A16" s="92" t="s">
+    <row r="18" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A18" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11246,8 +11320,8 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11262,30 +11336,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11300,11 +11374,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11317,69 +11391,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11389,7 +11463,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="A9" s="55" t="s">
@@ -11583,19 +11657,25 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="200.25" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -11603,12 +11683,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11639,30 +11713,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11677,11 +11751,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11694,69 +11768,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11766,7 +11840,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -11868,27 +11942,21 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -11896,6 +11964,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11933,30 +12007,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11971,11 +12045,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11988,69 +12062,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12060,7 +12134,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -12187,126 +12261,126 @@
       <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12359,30 +12433,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12397,11 +12471,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12414,69 +12488,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12486,7 +12560,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -12544,11 +12618,11 @@
       <c r="C11" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="14" t="s">
         <v>260</v>
       </c>
@@ -12612,11 +12686,11 @@
       <c r="C14" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="14" t="s">
         <v>260</v>
       </c>
@@ -12653,135 +12727,129 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A17:J26"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D14:F14"/>
@@ -12791,6 +12859,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12801,7 +12875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -12827,30 +12901,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12865,11 +12939,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12882,69 +12956,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12954,7 +13028,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -13053,135 +13127,129 @@
       <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A14:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -13189,6 +13257,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13215,30 +13289,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -13253,11 +13327,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -13270,69 +13344,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13342,7 +13416,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -13580,20 +13654,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="166.5" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13625,7 +13699,7 @@
   <dimension ref="A2:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13636,30 +13710,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13674,11 +13748,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13691,69 +13765,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13763,7 +13837,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -13813,11 +13887,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -13923,11 +13997,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -13947,11 +14021,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -13969,11 +14043,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -13993,11 +14067,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -14015,11 +14089,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -14030,7 +14104,7 @@
         <v>22</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>80</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5">
@@ -14039,11 +14113,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -14061,11 +14135,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -14085,11 +14159,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -14107,11 +14181,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -14129,11 +14203,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -14149,11 +14223,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -14171,11 +14245,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -14191,11 +14265,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -14215,11 +14289,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -14237,11 +14311,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -14261,11 +14335,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -14283,11 +14357,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -14305,11 +14379,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -14327,11 +14401,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -14351,11 +14425,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -14387,58 +14461,36 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
@@ -14451,6 +14503,28 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14479,30 +14553,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14517,11 +14591,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14534,69 +14608,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14606,7 +14680,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14684,18 +14758,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14739,30 +14813,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14777,11 +14851,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14794,69 +14868,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14866,7 +14940,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -14944,18 +15018,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14999,30 +15073,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15037,11 +15111,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15054,69 +15128,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15126,7 +15200,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="32" t="s">
@@ -15384,18 +15458,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15439,30 +15513,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15477,11 +15551,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -15494,72 +15568,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15569,7 +15643,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
@@ -15687,18 +15761,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15744,30 +15818,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15782,11 +15856,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15799,69 +15873,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15871,7 +15945,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -16140,21 +16214,27 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -16162,12 +16242,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16198,30 +16272,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -16236,11 +16310,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -16253,69 +16327,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -16325,7 +16399,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="16" t="s">
@@ -16590,21 +16664,27 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="118.5" customHeight="1">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -16612,12 +16692,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FE14A-C376-4F8C-AB9A-75A298D86DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EA0A5-7C0B-45EE-908C-326E4AD79CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2010" windowWidth="25095" windowHeight="13020" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="2010" windowWidth="25095" windowHeight="13020" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -10593,7 +10593,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10951,7 +10951,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -11698,7 +11698,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16256,7 +16256,7 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/근태_테이블.xlsx
+++ b/근태_테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EA0A5-7C0B-45EE-908C-326E4AD79CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD2F6C-4399-4D17-A4A2-56EE2502AFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2010" windowWidth="25095" windowHeight="13020" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="2010" windowWidth="25095" windowHeight="13020" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRIMATSER" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="334">
   <si>
     <t>Request for Table Creation</t>
   </si>
@@ -9020,6 +9020,10 @@
   </si>
   <si>
     <t>N0 : 당일 / N1 : 익일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHmmSS</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -9731,27 +9735,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9778,7 +9764,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10032,30 +10036,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -10070,11 +10074,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -10087,69 +10091,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10159,7 +10163,7 @@
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="90"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
@@ -10473,11 +10477,11 @@
       <c r="C21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="9" t="s">
         <v>23</v>
       </c>
@@ -10499,11 +10503,11 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -10525,11 +10529,11 @@
       <c r="C23" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
@@ -10547,21 +10551,27 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="155.25" customHeight="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A26:J26"/>
@@ -10572,12 +10582,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10608,30 +10612,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -10646,11 +10650,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -10663,69 +10667,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -10912,24 +10916,18 @@
       <c r="A18" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -10937,6 +10935,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10951,8 +10955,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10967,30 +10971,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11005,11 +11009,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11022,69 +11026,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11185,13 +11189,13 @@
         <v>23</v>
       </c>
       <c r="H12" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="64" customFormat="1" ht="16.5">
@@ -11237,13 +11241,13 @@
         <v>23</v>
       </c>
       <c r="H14" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="64" customFormat="1" ht="16.5">
@@ -11281,18 +11285,24 @@
       <c r="A18" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -11300,12 +11310,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11336,30 +11340,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11374,11 +11378,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11391,69 +11395,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11670,12 +11674,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -11683,6 +11681,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11713,30 +11717,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -11751,11 +11755,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -11768,69 +11772,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -11945,18 +11949,24 @@
       <c r="A15" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -11964,12 +11974,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12007,30 +12011,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12045,11 +12049,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12062,69 +12066,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12433,30 +12437,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12471,11 +12475,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12488,69 +12492,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -12850,6 +12854,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A17:J26"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D14:F14"/>
@@ -12859,12 +12869,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12901,30 +12905,30 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -12939,11 +12943,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -12956,69 +12960,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13250,6 +13254,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A14:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -13257,12 +13267,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13289,30 +13293,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -13327,11 +13331,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -13344,69 +13348,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13657,17 +13661,17 @@
       <c r="A20" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13710,30 +13714,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -13748,11 +13752,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -13765,69 +13769,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -13887,11 +13891,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
@@ -13997,11 +14001,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
@@ -14021,11 +14025,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="13" t="s">
         <v>23</v>
       </c>
@@ -14043,11 +14047,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -14067,11 +14071,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
@@ -14089,11 +14093,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
@@ -14113,11 +14117,11 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
@@ -14135,11 +14139,11 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
@@ -14159,11 +14163,11 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
@@ -14181,11 +14185,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
@@ -14203,11 +14207,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="13" t="s">
         <v>23</v>
       </c>
@@ -14223,11 +14227,11 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
@@ -14245,11 +14249,11 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
@@ -14265,11 +14269,11 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="13" t="s">
         <v>23</v>
       </c>
@@ -14289,11 +14293,11 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
@@ -14311,11 +14315,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
@@ -14335,11 +14339,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
@@ -14357,11 +14361,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
@@ -14379,11 +14383,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -14401,11 +14405,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="73"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="9" t="s">
         <v>23</v>
       </c>
@@ -14425,11 +14429,11 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="13" t="s">
         <v>23</v>
       </c>
@@ -14461,36 +14465,58 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="220.5" customHeight="1">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="81"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
@@ -14503,28 +14529,6 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14553,30 +14557,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14591,11 +14595,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14608,69 +14612,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -14758,18 +14762,18 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="180" customHeight="1">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14813,30 +14817,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -14851,11 +14855,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -14868,69 +14872,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15018,18 +15022,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="240.75" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15073,30 +15077,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15111,11 +15115,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15128,69 +15132,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15458,18 +15462,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15499,8 +15503,8 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15513,30 +15517,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15551,11 +15555,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -15568,72 +15572,72 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -15761,18 +15765,18 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15792,6 +15796,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15803,7 +15808,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C9" sqref="C9:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15818,30 +15823,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -15856,11 +15861,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -15873,69 +15878,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -16217,24 +16222,18 @@
       <c r="A23" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -16242,6 +16241,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16256,8 +16261,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16272,30 +16277,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1" t="s">
@@ -16310,11 +16315,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -16327,69 +16332,69 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
@@ -16667,24 +16672,18 @@
       <c r="A23" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -16692,6 +16691,12 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
